--- a/fileman_adt_conditions.xlsx
+++ b/fileman_adt_conditions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haryan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haryan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,9 +47,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>"DATE/TIME&gt;&gt;&gt;&gt;&gt;&gt;&lt;&lt;&lt;&lt;&lt;&lt;"_NUMDATE4(DATE/TIME)_" "_TIME(DATE/TIME);C1</t>
-  </si>
-  <si>
     <t>"TRANSACTION&gt;&gt;&gt;&gt;&gt;&gt;&lt;&lt;&lt;&lt;&lt;&lt;"_TRANSACTION;C1</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>"WARD LOCATION&gt;&gt;&gt;&gt;&gt;&gt;&lt;&lt;&lt;&lt;&lt;&lt;"_WARD LOCATION;C1</t>
   </si>
   <si>
-    <t>"DISCHARGE/CHECK-OUT MOVEMENT&gt;&gt;&gt;&gt;&gt;&gt;&lt;&lt;&lt;&lt;&lt;&lt;"_NUMDATE4(DISCHARGE/CHECK-OUT MOVEMENT)_" "_TIME(DISCHARGE/CHECK-OUT MOVEMENT);C1</t>
-  </si>
-  <si>
     <t>"FACILITY TREATING SPECIALTY&gt;&gt;&gt;&gt;&gt;&gt;&lt;&lt;&lt;&lt;&lt;&lt;"_FACILITY TREATING SPECIALTY;C1</t>
   </si>
   <si>
@@ -95,10 +89,16 @@
     <t>"ROOM-BED&gt;&gt;&gt;&gt;&gt;&gt;&lt;&lt;&lt;&lt;&lt;&lt;"_ROOM-BED;C1</t>
   </si>
   <si>
-    <t>"ADMISSION/CHECK-IN MOVEMENT&gt;&gt;&gt;&gt;&gt;&gt;&lt;&lt;&lt;&lt;&lt;&lt;"_NUMDATE4(ADMISSION/CHECK-IN MOVEMENT)_" "_TIME(ADMISSION/CHECK-IN MOVEMENT);C1</t>
-  </si>
-  <si>
     <t>.03:IHS:</t>
+  </si>
+  <si>
+    <t>"DATE/TIME&gt;&gt;&gt;&gt;&gt;&gt;&lt;&lt;&lt;&lt;&lt;&lt;"_NUMDATE4(#.01)_" "_TIME(#.01);C1</t>
+  </si>
+  <si>
+    <t>"ADMISSION/CHECK-IN MOVEMENT&gt;&gt;&gt;&gt;&gt;&gt;&lt;&lt;&lt;&lt;&lt;&lt;"_NUMDATE4(#.14)_" "_TIME(#.14);C1</t>
+  </si>
+  <si>
+    <t>"DISCHARGE/CHECK-OUT MOVEMENT&gt;&gt;&gt;&gt;&gt;&gt;&lt;&lt;&lt;&lt;&lt;&lt;"_NUMDATE4(#.17)_" "_TIME(#.17);C1</t>
   </si>
 </sst>
 </file>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -542,119 +542,102 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>11</v>
+      <c r="A31" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A41" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>